--- a/Projeto Dashbard Xbox Games.xlsx
+++ b/Projeto Dashbard Xbox Games.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos DIO\EXCEL com Inteligência Artificial\03. Projeto Dashbard Xbox ONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos DIO\EXCEL com Inteligência Artificial\03. Projeto Dashbard Xbox Games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465A344-550C-477A-8E4B-EFBC572D32FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EF0958-1BC0-4FEB-AE72-B21210F82DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
     <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1770,7 +1770,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Projeto Dashbard Xbox ONE.xlsx]C̳álculos!tbl_anual_total</c:name>
+    <c:name>[Projeto Dashbard Xbox Games.xlsx]C̳álculos!tbl_anual_total</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2212,7 +2212,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Projeto Dashbard Xbox ONE.xlsx]C̳álculos!Tabela dinâmica4</c:name>
+    <c:name>[Projeto Dashbard Xbox Games.xlsx]C̳álculos!Tabela dinâmica4</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -4286,7 +4286,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4334,7 +4334,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10535,99 +10535,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FAF0024-EF99-4CF8-B0FF-A5C4FEEFBB94}" name="tbl_anual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62A79F24-CE47-424D-8492-8BE54D5E2F35}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="B43:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -10732,7 +10639,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{293A39AC-552D-4A42-A121-4EBF0C17AFA8}" name="tbl_minecraftseasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -10814,7 +10721,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8184BECE-8D86-41B3-81F5-1CC247D6BA2F}" name="tbl_eaplayseasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -10896,6 +10803,99 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FAF0024-EF99-4CF8-B0FF-A5C4FEEFBB94}" name="tbl_anual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Plan" xr10:uid="{9515511D-DC3E-42F5-A1FB-C49CB902ADF1}" sourceName="Plan">
   <pivotTables>
@@ -10945,7 +10945,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
+  <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Ultimate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="11"/>
@@ -11461,9 +11467,9 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E33" sqref="E33"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11565,7 +11571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3232</v>
       </c>
@@ -11606,7 +11612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3233</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3235</v>
       </c>
@@ -11729,7 +11735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3236</v>
       </c>
@@ -11811,7 +11817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3238</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3240</v>
       </c>
@@ -11934,7 +11940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3241</v>
       </c>
@@ -12016,7 +12022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3243</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3244</v>
       </c>
@@ -12139,7 +12145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>3246</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3247</v>
       </c>
@@ -12262,7 +12268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3249</v>
       </c>
@@ -12303,7 +12309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3250</v>
       </c>
@@ -12385,7 +12391,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3252</v>
       </c>
@@ -12426,7 +12432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>3253</v>
       </c>
@@ -12508,7 +12514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>3255</v>
       </c>
@@ -12549,7 +12555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3256</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3258</v>
       </c>
@@ -12672,7 +12678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3259</v>
       </c>
@@ -12754,7 +12760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3261</v>
       </c>
@@ -12795,7 +12801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>3262</v>
       </c>
@@ -12877,7 +12883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3264</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3265</v>
       </c>
@@ -12959,7 +12965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3266</v>
       </c>
@@ -13041,7 +13047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3268</v>
       </c>
@@ -13082,7 +13088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3269</v>
       </c>
@@ -13164,7 +13170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3271</v>
       </c>
@@ -13205,7 +13211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3272</v>
       </c>
@@ -13287,7 +13293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>3274</v>
       </c>
@@ -13328,7 +13334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>3275</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>3277</v>
       </c>
@@ -13451,7 +13457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>3278</v>
       </c>
@@ -13533,7 +13539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>3280</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>3281</v>
       </c>
@@ -13656,7 +13662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>3283</v>
       </c>
@@ -13697,7 +13703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>3284</v>
       </c>
@@ -13779,7 +13785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>3286</v>
       </c>
@@ -13820,7 +13826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>3287</v>
       </c>
@@ -13902,7 +13908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>3289</v>
       </c>
@@ -13943,7 +13949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>3290</v>
       </c>
@@ -14025,7 +14031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>3292</v>
       </c>
@@ -14066,7 +14072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>3293</v>
       </c>
@@ -14148,7 +14154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>3295</v>
       </c>
@@ -14189,7 +14195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>3296</v>
       </c>
@@ -14271,7 +14277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>3298</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>3299</v>
       </c>
@@ -14394,7 +14400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>3301</v>
       </c>
@@ -14435,7 +14441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>3302</v>
       </c>
@@ -14517,7 +14523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>3304</v>
       </c>
@@ -14558,7 +14564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>3305</v>
       </c>
@@ -14640,7 +14646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>3307</v>
       </c>
@@ -14681,7 +14687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>3308</v>
       </c>
@@ -14763,7 +14769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>3310</v>
       </c>
@@ -14804,7 +14810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>3311</v>
       </c>
@@ -14886,7 +14892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>3313</v>
       </c>
@@ -14927,7 +14933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>3314</v>
       </c>
@@ -15009,7 +15015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>3316</v>
       </c>
@@ -15050,7 +15056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>3317</v>
       </c>
@@ -15132,7 +15138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>3319</v>
       </c>
@@ -15173,7 +15179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>3320</v>
       </c>
@@ -15255,7 +15261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>3322</v>
       </c>
@@ -15296,7 +15302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>3323</v>
       </c>
@@ -15378,7 +15384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>3325</v>
       </c>
@@ -15419,7 +15425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>3326</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>3328</v>
       </c>
@@ -15542,7 +15548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>3329</v>
       </c>
@@ -15624,7 +15630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>3331</v>
       </c>
@@ -15665,7 +15671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>3332</v>
       </c>
@@ -15747,7 +15753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>3334</v>
       </c>
@@ -15788,7 +15794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>3335</v>
       </c>
@@ -15829,7 +15835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>3336</v>
       </c>
@@ -15911,7 +15917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>3338</v>
       </c>
@@ -15952,7 +15958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>3339</v>
       </c>
@@ -16034,7 +16040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>3341</v>
       </c>
@@ -16075,7 +16081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>3342</v>
       </c>
@@ -16157,7 +16163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>3344</v>
       </c>
@@ -16198,7 +16204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>3345</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>3347</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>3348</v>
       </c>
@@ -16403,7 +16409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>3350</v>
       </c>
@@ -16444,7 +16450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>3351</v>
       </c>
@@ -16526,7 +16532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>3353</v>
       </c>
@@ -16567,7 +16573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>3354</v>
       </c>
@@ -16649,7 +16655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>3356</v>
       </c>
@@ -16690,7 +16696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>3357</v>
       </c>
@@ -16772,7 +16778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>3359</v>
       </c>
@@ -16813,7 +16819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>3360</v>
       </c>
@@ -16895,7 +16901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>3362</v>
       </c>
@@ -16936,7 +16942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>3363</v>
       </c>
@@ -17018,7 +17024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>3365</v>
       </c>
@@ -17059,7 +17065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>3366</v>
       </c>
@@ -17141,7 +17147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>3368</v>
       </c>
@@ -17182,7 +17188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>3369</v>
       </c>
@@ -17264,7 +17270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>3371</v>
       </c>
@@ -17305,7 +17311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>3372</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>3374</v>
       </c>
@@ -17428,7 +17434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>3375</v>
       </c>
@@ -17510,7 +17516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>3377</v>
       </c>
@@ -17551,7 +17557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>3378</v>
       </c>
@@ -17633,7 +17639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>3380</v>
       </c>
@@ -17674,7 +17680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>3381</v>
       </c>
@@ -17756,7 +17762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>3383</v>
       </c>
@@ -17797,7 +17803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>3384</v>
       </c>
@@ -17879,7 +17885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>3386</v>
       </c>
@@ -17920,7 +17926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>3387</v>
       </c>
@@ -18002,7 +18008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>3389</v>
       </c>
@@ -18043,7 +18049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>3390</v>
       </c>
@@ -18125,7 +18131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>3392</v>
       </c>
@@ -18166,7 +18172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>3393</v>
       </c>
@@ -18248,7 +18254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>3395</v>
       </c>
@@ -18289,7 +18295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>3396</v>
       </c>
@@ -18371,7 +18377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>3398</v>
       </c>
@@ -18412,7 +18418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>3399</v>
       </c>
@@ -18494,7 +18500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>3401</v>
       </c>
@@ -18535,7 +18541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>3402</v>
       </c>
@@ -18617,7 +18623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>3404</v>
       </c>
@@ -18658,7 +18664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>3405</v>
       </c>
@@ -18699,7 +18705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>3406</v>
       </c>
@@ -18781,7 +18787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>3408</v>
       </c>
@@ -18822,7 +18828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>3409</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>3411</v>
       </c>
@@ -18945,7 +18951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>3412</v>
       </c>
@@ -19027,7 +19033,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>3414</v>
       </c>
@@ -19068,7 +19074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>3415</v>
       </c>
@@ -19150,7 +19156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>3417</v>
       </c>
@@ -19191,7 +19197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>3418</v>
       </c>
@@ -19273,7 +19279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>3420</v>
       </c>
@@ -19314,7 +19320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>3421</v>
       </c>
@@ -19396,7 +19402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>3423</v>
       </c>
@@ -19437,7 +19443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>3424</v>
       </c>
@@ -19519,7 +19525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>3426</v>
       </c>
@@ -19560,7 +19566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>3427</v>
       </c>
@@ -19642,7 +19648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>3429</v>
       </c>
@@ -19683,7 +19689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>3430</v>
       </c>
@@ -19765,7 +19771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>3432</v>
       </c>
@@ -19806,7 +19812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>3433</v>
       </c>
@@ -19888,7 +19894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>3435</v>
       </c>
@@ -19929,7 +19935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>3436</v>
       </c>
@@ -20011,7 +20017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>3438</v>
       </c>
@@ -20052,7 +20058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>3439</v>
       </c>
@@ -20134,7 +20140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>3441</v>
       </c>
@@ -20175,7 +20181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>3442</v>
       </c>
@@ -20257,7 +20263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>3444</v>
       </c>
@@ -20298,7 +20304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>3445</v>
       </c>
@@ -20380,7 +20386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>3447</v>
       </c>
@@ -20421,7 +20427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>3448</v>
       </c>
@@ -20503,7 +20509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>3450</v>
       </c>
@@ -20544,7 +20550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>3451</v>
       </c>
@@ -20626,7 +20632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>3453</v>
       </c>
@@ -20667,7 +20673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>3454</v>
       </c>
@@ -20749,7 +20755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>3456</v>
       </c>
@@ -20790,7 +20796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>3457</v>
       </c>
@@ -20872,7 +20878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>3459</v>
       </c>
@@ -20913,7 +20919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>3460</v>
       </c>
@@ -20995,7 +21001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>3462</v>
       </c>
@@ -21036,7 +21042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>3463</v>
       </c>
@@ -21118,7 +21124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>3465</v>
       </c>
@@ -21159,7 +21165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>3466</v>
       </c>
@@ -21241,7 +21247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>3468</v>
       </c>
@@ -21282,7 +21288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>3469</v>
       </c>
@@ -21364,7 +21370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>3471</v>
       </c>
@@ -21405,7 +21411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>3472</v>
       </c>
@@ -21487,7 +21493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>3474</v>
       </c>
@@ -21528,7 +21534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>3475</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>3477</v>
       </c>
@@ -21651,7 +21657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>3478</v>
       </c>
@@ -21733,7 +21739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>3480</v>
       </c>
@@ -21774,7 +21780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>3481</v>
       </c>
@@ -21856,7 +21862,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>3483</v>
       </c>
@@ -21897,7 +21903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>3484</v>
       </c>
@@ -21979,7 +21985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>3486</v>
       </c>
@@ -22061,7 +22067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>3488</v>
       </c>
@@ -22102,7 +22108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>3489</v>
       </c>
@@ -22184,7 +22190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>3491</v>
       </c>
@@ -22225,7 +22231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>3492</v>
       </c>
@@ -22307,7 +22313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>3494</v>
       </c>
@@ -22348,7 +22354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>3495</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>3497</v>
       </c>
@@ -22471,7 +22477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>3498</v>
       </c>
@@ -22553,7 +22559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>3500</v>
       </c>
@@ -22594,7 +22600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>3501</v>
       </c>
@@ -22676,7 +22682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>3503</v>
       </c>
@@ -22717,7 +22723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>3504</v>
       </c>
@@ -22799,7 +22805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>3506</v>
       </c>
@@ -22840,7 +22846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>3507</v>
       </c>
@@ -22922,7 +22928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>3509</v>
       </c>
@@ -22963,7 +22969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>3510</v>
       </c>
@@ -23045,7 +23051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>3512</v>
       </c>
@@ -23086,7 +23092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>3513</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>3515</v>
       </c>
@@ -23209,7 +23215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>3516</v>
       </c>
@@ -23291,7 +23297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>3518</v>
       </c>
@@ -23332,7 +23338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>3519</v>
       </c>
@@ -23414,7 +23420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>3521</v>
       </c>
@@ -23455,7 +23461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>3522</v>
       </c>
@@ -23537,7 +23543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>3524</v>
       </c>
@@ -23578,7 +23584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>3525</v>
       </c>
@@ -23635,15 +23641,14 @@
   </sheetPr>
   <dimension ref="B2:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -25352,6 +25357,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -25606,17 +25622,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -25627,6 +25632,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25645,17 +25661,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
   <ds:schemaRefs>
